--- a/data/trans_orig/P22_R3-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P22_R3-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4169</v>
+        <v>4191</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17064</v>
+        <v>19497</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01503790385287481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007146587652022967</v>
+        <v>0.007185391521248924</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02925265403082996</v>
+        <v>0.03342417448880491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>16631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9640</v>
+        <v>10230</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26474</v>
+        <v>27262</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01803156753245965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01045210600927325</v>
+        <v>0.01109108650014246</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02870310839366558</v>
+        <v>0.02955792146195181</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>25403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16975</v>
+        <v>17657</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37576</v>
+        <v>38760</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01687175933630642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01127406726571194</v>
+        <v>0.01172721386999411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02495652776705441</v>
+        <v>0.0257426679961962</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>574551</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>566259</v>
+        <v>563826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>579154</v>
+        <v>579132</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9849620961471252</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.97074734596917</v>
+        <v>0.9665758255111951</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9928534123479771</v>
+        <v>0.9928146084787511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>869</v>
@@ -836,19 +836,19 @@
         <v>905702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>895859</v>
+        <v>895071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>912693</v>
+        <v>912103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9819684324675404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.971296891606334</v>
+        <v>0.9704420785380482</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9895478939907265</v>
+        <v>0.9889089134998578</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1434</v>
@@ -857,19 +857,19 @@
         <v>1480253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1468080</v>
+        <v>1466896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1488681</v>
+        <v>1487999</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9831282406636935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9750434722329456</v>
+        <v>0.9742573320038033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9887259327342881</v>
+        <v>0.9882727861300058</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>16339</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9278</v>
+        <v>10202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26425</v>
+        <v>28518</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01517434625642262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008616278837624142</v>
+        <v>0.009474936002566913</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02454114268373838</v>
+        <v>0.02648548451258643</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -982,19 +982,19 @@
         <v>42436</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30172</v>
+        <v>30415</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57590</v>
+        <v>56757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04017164974716252</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02856195452733623</v>
+        <v>0.02879219806542278</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05451729316504705</v>
+        <v>0.05372943597695525</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -1003,19 +1003,19 @@
         <v>58775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45067</v>
+        <v>44205</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74253</v>
+        <v>75257</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02755345559740038</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02112735239387233</v>
+        <v>0.02072313021916058</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03480959151309103</v>
+        <v>0.03528014067919429</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1060420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1050334</v>
+        <v>1048241</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1067481</v>
+        <v>1066557</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9848256537435773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9754588573162619</v>
+        <v>0.973514515487414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9913837211623759</v>
+        <v>0.9905250639974332</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>987</v>
@@ -1053,19 +1053,19 @@
         <v>1013921</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>998767</v>
+        <v>999600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1026185</v>
+        <v>1025942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9598283502528375</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9454827068349528</v>
+        <v>0.9462705640230448</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9714380454726638</v>
+        <v>0.9712078019345771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2025</v>
@@ -1074,19 +1074,19 @@
         <v>2074342</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2058864</v>
+        <v>2057860</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2088050</v>
+        <v>2088912</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9724465444025996</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9651904084869088</v>
+        <v>0.9647198593208058</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9788726476061276</v>
+        <v>0.9792768697808395</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>62278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48928</v>
+        <v>47986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77714</v>
+        <v>77964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05567323631655108</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04373854755550725</v>
+        <v>0.0428964868421654</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06947176296380601</v>
+        <v>0.06969518031812333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1199,19 +1199,19 @@
         <v>52027</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38024</v>
+        <v>37651</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68254</v>
+        <v>67747</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05238880486518999</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03828855956619883</v>
+        <v>0.03791270906149292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06872913341508656</v>
+        <v>0.06821811945275365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1220,19 +1220,19 @@
         <v>114305</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95756</v>
+        <v>96548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136781</v>
+        <v>137482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05412865630210936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04534448431387673</v>
+        <v>0.04571982013711382</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06477202615897228</v>
+        <v>0.06510386230985099</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1056365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1040929</v>
+        <v>1040679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1069715</v>
+        <v>1070657</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9443267636834489</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9305282370361939</v>
+        <v>0.9303048196818764</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9562614524444927</v>
+        <v>0.9571035131578342</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>933</v>
@@ -1270,19 +1270,19 @@
         <v>941065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>924838</v>
+        <v>925345</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>955068</v>
+        <v>955441</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9476111951348101</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9312708665849134</v>
+        <v>0.9317818805472463</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9617114404338013</v>
+        <v>0.9620872909385071</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1970</v>
@@ -1291,19 +1291,19 @@
         <v>1997430</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1974954</v>
+        <v>1974253</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2015979</v>
+        <v>2015187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9458713436978906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9352279738410277</v>
+        <v>0.9348961376901488</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9546555156861233</v>
+        <v>0.9542801798628862</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>42311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30476</v>
+        <v>31221</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56502</v>
+        <v>56136</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09493270196017589</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06837906311639919</v>
+        <v>0.07004962395628352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.126771838022154</v>
+        <v>0.1259518187160032</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1416,19 +1416,19 @@
         <v>34091</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23899</v>
+        <v>24992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47049</v>
+        <v>46365</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09992605049143932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07005401956399898</v>
+        <v>0.07325516548616527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1379082999814391</v>
+        <v>0.1359061525662463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1437,19 +1437,19 @@
         <v>76402</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60697</v>
+        <v>61498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94881</v>
+        <v>97609</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09709767969263146</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0771387263300206</v>
+        <v>0.07815713503673982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1205825445727454</v>
+        <v>0.124050265889823</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>403385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>389194</v>
+        <v>389560</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>415220</v>
+        <v>414475</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9050672980398241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.873228161977846</v>
+        <v>0.8740481812839965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9316209368836008</v>
+        <v>0.9299503760437164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>305</v>
@@ -1487,19 +1487,19 @@
         <v>307067</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294109</v>
+        <v>294793</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>317259</v>
+        <v>316166</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9000739495085607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8620917000185606</v>
+        <v>0.8640938474337539</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.929945980436001</v>
+        <v>0.9267448345138352</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -1508,19 +1508,19 @@
         <v>710452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>691973</v>
+        <v>689245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>726157</v>
+        <v>725356</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9029023203073685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8794174554272551</v>
+        <v>0.8759497341101765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9228612736699796</v>
+        <v>0.9218428649632601</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>129701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>108788</v>
+        <v>109635</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>156333</v>
+        <v>154703</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04022447903569039</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03373887238433466</v>
+        <v>0.03400131432165637</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04848418237554249</v>
+        <v>0.04797853043292512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -1633,19 +1633,19 @@
         <v>145184</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123710</v>
+        <v>123724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>171454</v>
+        <v>172020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0438233688634397</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03734129563777631</v>
+        <v>0.0373457315947784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05175283994460064</v>
+        <v>0.05192359969387195</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -1654,19 +1654,19 @@
         <v>274885</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>244425</v>
+        <v>243112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>307215</v>
+        <v>310096</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0420482896491866</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03738898249964973</v>
+        <v>0.03718814071328195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04699371242755969</v>
+        <v>0.04743443109421654</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3094720</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3068088</v>
+        <v>3069718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3115633</v>
+        <v>3114786</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9597755209643096</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9515158176244577</v>
+        <v>0.9520214695670751</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9662611276156654</v>
+        <v>0.9659986856783437</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3094</v>
@@ -1704,19 +1704,19 @@
         <v>3167757</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3141487</v>
+        <v>3140921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3189231</v>
+        <v>3189217</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9561766311365603</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9482471600553994</v>
+        <v>0.9480764003061281</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9626587043622238</v>
+        <v>0.9626542684052216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6128</v>
@@ -1725,19 +1725,19 @@
         <v>6262476</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6230146</v>
+        <v>6227265</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6292936</v>
+        <v>6294249</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9579517103508134</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9530062875724405</v>
+        <v>0.9525655689057837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9626110175003504</v>
+        <v>0.9628118592867183</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>16031</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9116</v>
+        <v>8822</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25957</v>
+        <v>27908</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01535670774721601</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008732447133574715</v>
+        <v>0.00845115929776279</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02486472522172633</v>
+        <v>0.02673343089416344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2090,19 +2090,19 @@
         <v>17858</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10260</v>
+        <v>9910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29240</v>
+        <v>30571</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01594547713065991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009161245441581702</v>
+        <v>0.008848767950788133</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02610892525399099</v>
+        <v>0.02729737734066645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -2111,19 +2111,19 @@
         <v>33889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22061</v>
+        <v>22833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48726</v>
+        <v>48706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01566143105040249</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01019498513781137</v>
+        <v>0.01055175104580767</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0225181020680491</v>
+        <v>0.0225087394273921</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1027904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1017978</v>
+        <v>1016027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1034819</v>
+        <v>1035113</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.984643292252784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9751352747782738</v>
+        <v>0.9732665691058363</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9912675528664253</v>
+        <v>0.9915488407022371</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1016</v>
@@ -2161,19 +2161,19 @@
         <v>1102070</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1090688</v>
+        <v>1089357</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1109668</v>
+        <v>1110018</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9840545228693401</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.973891074746009</v>
+        <v>0.9727026226593335</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9908387545584183</v>
+        <v>0.991151232049212</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1980</v>
@@ -2182,19 +2182,19 @@
         <v>2129974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2115137</v>
+        <v>2115157</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2141802</v>
+        <v>2141030</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9843385689495975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9774818979319508</v>
+        <v>0.9774912605726087</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9898050148621885</v>
+        <v>0.9894482489541924</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>25885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16829</v>
+        <v>17182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38934</v>
+        <v>39058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0265193236002987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01724110988718569</v>
+        <v>0.01760267115151841</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03988714822515454</v>
+        <v>0.04001442841731276</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -2307,19 +2307,19 @@
         <v>33826</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23359</v>
+        <v>22885</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48938</v>
+        <v>48099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0309118507904887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02134638064084323</v>
+        <v>0.02091338569862271</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04472215800545822</v>
+        <v>0.0439552793001558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -2328,19 +2328,19 @@
         <v>59711</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44634</v>
+        <v>44808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78383</v>
+        <v>78195</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.028840944507888</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02155870495364958</v>
+        <v>0.02164268335792061</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03785953864897162</v>
+        <v>0.03776867802015161</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>950207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>937158</v>
+        <v>937034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>959263</v>
+        <v>958910</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9734806763997013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9601128517748457</v>
+        <v>0.9599855715826874</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9827588901128144</v>
+        <v>0.9823973288484816</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>991</v>
@@ -2378,19 +2378,19 @@
         <v>1060436</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1045324</v>
+        <v>1046163</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1070903</v>
+        <v>1071377</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9690881492095113</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9552778419945418</v>
+        <v>0.956044720699844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9786536193591568</v>
+        <v>0.979086614301377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1891</v>
@@ -2399,19 +2399,19 @@
         <v>2010643</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1991971</v>
+        <v>1992159</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2025720</v>
+        <v>2025546</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.971159055492112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9621404613510284</v>
+        <v>0.9622313219798484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9784412950463504</v>
+        <v>0.9783573166420796</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>59056</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44762</v>
+        <v>44437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77553</v>
+        <v>76756</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06672132242333231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05057142864594684</v>
+        <v>0.05020445084156124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08761892046277901</v>
+        <v>0.08671835788243867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -2524,19 +2524,19 @@
         <v>31919</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22500</v>
+        <v>21803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45850</v>
+        <v>44255</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03644551684153754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02569142898698777</v>
+        <v>0.02489559806062883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05235235432354596</v>
+        <v>0.05053150199181968</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -2545,19 +2545,19 @@
         <v>90975</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73801</v>
+        <v>73070</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114009</v>
+        <v>114154</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05166353444873473</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04191095427139978</v>
+        <v>0.0414958349530623</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06474415750491509</v>
+        <v>0.06482651049259956</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>826059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>807562</v>
+        <v>808359</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>840353</v>
+        <v>840678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9332786775766677</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9123810795372208</v>
+        <v>0.9132816421175614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.949428571354053</v>
+        <v>0.9497955491584389</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>792</v>
@@ -2595,19 +2595,19 @@
         <v>843877</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>829946</v>
+        <v>831541</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>853296</v>
+        <v>853993</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9635544831584625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9476476456764541</v>
+        <v>0.94946849800818</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9743085710130123</v>
+        <v>0.9751044019393709</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1570</v>
@@ -2616,19 +2616,19 @@
         <v>1669936</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1646902</v>
+        <v>1646757</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1687110</v>
+        <v>1687841</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9483364655512653</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9352558424950849</v>
+        <v>0.9351734895074002</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9580890457286001</v>
+        <v>0.9585041650469376</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>54865</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39532</v>
+        <v>40330</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71438</v>
+        <v>72485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1090715247453607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07858913698388054</v>
+        <v>0.08017489166461841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1420169477996897</v>
+        <v>0.1440993007892411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -2741,19 +2741,19 @@
         <v>38896</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27415</v>
+        <v>27731</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53811</v>
+        <v>54272</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08591385057610891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06055360455049784</v>
+        <v>0.06125121070532938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1188565052726959</v>
+        <v>0.1198760857839155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -2762,19 +2762,19 @@
         <v>93762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75067</v>
+        <v>73604</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116894</v>
+        <v>115573</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09810190645197611</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07854235249580099</v>
+        <v>0.07701133117404074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1223054101458078</v>
+        <v>0.1209224469319125</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>448158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>431585</v>
+        <v>430538</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>463491</v>
+        <v>462693</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8909284752546394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8579830522003105</v>
+        <v>0.8559006992107591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9214108630161196</v>
+        <v>0.919825108335382</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>381</v>
@@ -2812,19 +2812,19 @@
         <v>413840</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398925</v>
+        <v>398464</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>425321</v>
+        <v>425005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9140861494238911</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8811434947273041</v>
+        <v>0.8801239142160846</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9394463954495021</v>
+        <v>0.9387487892946706</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>799</v>
@@ -2833,19 +2833,19 @@
         <v>861996</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>838864</v>
+        <v>840185</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>880691</v>
+        <v>882154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9018980935480239</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8776945898541916</v>
+        <v>0.8790775530680874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9214576475041988</v>
+        <v>0.922988668825959</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>155838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132018</v>
+        <v>131592</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>185984</v>
+        <v>186329</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04572496487943302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03873587149809752</v>
+        <v>0.03861089190101035</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05457022790215176</v>
+        <v>0.05467126417213115</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -2958,19 +2958,19 @@
         <v>122499</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99585</v>
+        <v>102870</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147741</v>
+        <v>149296</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03457752236696084</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02810966123167201</v>
+        <v>0.02903685936537942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04170258402236036</v>
+        <v>0.04214151489726721</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>236</v>
@@ -2979,19 +2979,19 @@
         <v>278337</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241127</v>
+        <v>245450</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>319247</v>
+        <v>318747</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04004334543688214</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03469011959362939</v>
+        <v>0.0353121053295397</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04592895321650714</v>
+        <v>0.04585709026432324</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3252326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3222180</v>
+        <v>3221835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3276146</v>
+        <v>3276572</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.954275035120567</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9454297720978482</v>
+        <v>0.9453287358278689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9612641285019025</v>
+        <v>0.9613891080989897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3180</v>
@@ -3029,19 +3029,19 @@
         <v>3420223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3394981</v>
+        <v>3393426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3443137</v>
+        <v>3439852</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9654224776330391</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9582974159776397</v>
+        <v>0.9578584851027327</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9718903387683282</v>
+        <v>0.9709631406346206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6240</v>
@@ -3050,19 +3050,19 @@
         <v>6672549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6631639</v>
+        <v>6632139</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6709759</v>
+        <v>6705436</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9599566545631179</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9540710467834929</v>
+        <v>0.9541429097356768</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9653098804063706</v>
+        <v>0.9646878946704602</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>14003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7523</v>
+        <v>7386</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24247</v>
+        <v>25198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01242456548133183</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006675019372837878</v>
+        <v>0.006552957710526218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02151381016208858</v>
+        <v>0.0223574992313334</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3415,19 +3415,19 @@
         <v>8997</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3642</v>
+        <v>3961</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16872</v>
+        <v>18168</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007168597416367163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002901979193704906</v>
+        <v>0.003155994312591959</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01344371575255796</v>
+        <v>0.01447621086970585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -3436,19 +3436,19 @@
         <v>23000</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14082</v>
+        <v>14847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34541</v>
+        <v>35430</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009655407922844139</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005911709311789349</v>
+        <v>0.006232634928017815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01450043094157026</v>
+        <v>0.01487346710794284</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1113060</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1102816</v>
+        <v>1101865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1119540</v>
+        <v>1119677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9875754345186681</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9784861898379117</v>
+        <v>0.9776425007686667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9933249806271621</v>
+        <v>0.9934470422894739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1176</v>
@@ -3486,19 +3486,19 @@
         <v>1246030</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1238155</v>
+        <v>1236859</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1251385</v>
+        <v>1251066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9928314025836328</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9865562842474418</v>
+        <v>0.9855237891302959</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9970980208062949</v>
+        <v>0.9968440056874084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2229</v>
@@ -3507,19 +3507,19 @@
         <v>2359090</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2347549</v>
+        <v>2346660</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2368008</v>
+        <v>2367243</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9903445920771559</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9854995690584302</v>
+        <v>0.9851265328920574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9940882906882114</v>
+        <v>0.9937673650719823</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>29790</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20137</v>
+        <v>20506</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41538</v>
+        <v>42436</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0329227404895388</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02225452872109417</v>
+        <v>0.02266261348312638</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04590560606493849</v>
+        <v>0.04689852779590627</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -3632,19 +3632,19 @@
         <v>32582</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22366</v>
+        <v>23138</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44992</v>
+        <v>46405</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03241321850013307</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02224983538964666</v>
+        <v>0.0230179880194387</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04475866307129447</v>
+        <v>0.04616457750980511</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -3653,19 +3653,19 @@
         <v>62372</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49372</v>
+        <v>47664</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80448</v>
+        <v>80087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03265459385242087</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0258486446295778</v>
+        <v>0.02495454399232066</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0421180577038444</v>
+        <v>0.04192941088051458</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>875056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>863308</v>
+        <v>862410</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>884709</v>
+        <v>884340</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9670772595104612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9540943939350613</v>
+        <v>0.9531014722040937</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9777454712789058</v>
+        <v>0.9773373865168735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>920</v>
@@ -3703,19 +3703,19 @@
         <v>972622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>960212</v>
+        <v>958799</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>982838</v>
+        <v>982066</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9675867814998669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9552413369287057</v>
+        <v>0.9538354224901956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9777501646103534</v>
+        <v>0.9769820119805613</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1769</v>
@@ -3724,19 +3724,19 @@
         <v>1847679</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1829603</v>
+        <v>1829964</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1860679</v>
+        <v>1862387</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9673454061475791</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9578819422961555</v>
+        <v>0.9580705891194854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9741513553704222</v>
+        <v>0.9750454560076793</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>60059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45509</v>
+        <v>45728</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76502</v>
+        <v>78219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07290807019570063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05524538817503603</v>
+        <v>0.0555118379150332</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09286927424736563</v>
+        <v>0.09495427711504061</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -3849,19 +3849,19 @@
         <v>40602</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29377</v>
+        <v>28399</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56100</v>
+        <v>53539</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05265764549227328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03809900901724271</v>
+        <v>0.03683149431726614</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07275683833345535</v>
+        <v>0.06943553102348689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -3870,19 +3870,19 @@
         <v>100661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81162</v>
+        <v>84696</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121739</v>
+        <v>124253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06311744444667075</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05089102158440491</v>
+        <v>0.05310688186027457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07633439335548046</v>
+        <v>0.07791037386922428</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>763700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>747257</v>
+        <v>745540</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>778250</v>
+        <v>778031</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9270919298042993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9071307257526348</v>
+        <v>0.9050457228849597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.944754611824964</v>
+        <v>0.9444881620849668</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>689</v>
@@ -3920,19 +3920,19 @@
         <v>730457</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>714959</v>
+        <v>717520</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>741682</v>
+        <v>742660</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9473423545077267</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9272431616665445</v>
+        <v>0.9305644689765119</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9619009909827571</v>
+        <v>0.9631685056827337</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1420</v>
@@ -3941,19 +3941,19 @@
         <v>1494157</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1473079</v>
+        <v>1470565</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1513656</v>
+        <v>1510122</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9368825555533292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9236656066445196</v>
+        <v>0.9220896261307757</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9491089784155951</v>
+        <v>0.9468931181397254</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>52493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39124</v>
+        <v>39238</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67717</v>
+        <v>67169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.103598291215191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07721356985048844</v>
+        <v>0.07743806017596998</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1336424183340416</v>
+        <v>0.1325616020233932</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -4066,19 +4066,19 @@
         <v>39004</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28061</v>
+        <v>28563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53446</v>
+        <v>54376</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07964890992502521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0573032406412765</v>
+        <v>0.05832780656029058</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1091404562739002</v>
+        <v>0.1110389776532431</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -4087,19 +4087,19 @@
         <v>91497</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74039</v>
+        <v>73272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114306</v>
+        <v>111287</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0918279463801296</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07430672492091807</v>
+        <v>0.07353660488320661</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1147189237220527</v>
+        <v>0.1116894258367785</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>454208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>438984</v>
+        <v>439532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>467577</v>
+        <v>467463</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.896401708784809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8663575816659581</v>
+        <v>0.8674383979766068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9227864301495116</v>
+        <v>0.9225619398240298</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>419</v>
@@ -4137,19 +4137,19 @@
         <v>450694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>436252</v>
+        <v>435322</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>461637</v>
+        <v>461135</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9203510900749747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8908595437260997</v>
+        <v>0.8889610223467569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9426967593587234</v>
+        <v>0.9416721934397093</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>844</v>
@@ -4158,19 +4158,19 @@
         <v>904901</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>882092</v>
+        <v>885111</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>922359</v>
+        <v>923126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9081720536198704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8852810762779483</v>
+        <v>0.8883105741632216</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9256932750790821</v>
+        <v>0.9264633951167933</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>156345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132763</v>
+        <v>132293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>183492</v>
+        <v>183000</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04649856201916465</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03948508947548745</v>
+        <v>0.03934531080520523</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05457214069224549</v>
+        <v>0.0544257899570972</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -4283,19 +4283,19 @@
         <v>121185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100240</v>
+        <v>101189</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143777</v>
+        <v>147963</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03441781689365463</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02846927060701409</v>
+        <v>0.02873874421843935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04083436119401964</v>
+        <v>0.0420231460647305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>256</v>
@@ -4304,19 +4304,19 @@
         <v>277530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>244461</v>
+        <v>245171</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>312692</v>
+        <v>315984</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04031899684284826</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03551480348979524</v>
+        <v>0.035617891563332</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04542724593637192</v>
+        <v>0.04590545141029127</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3206024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3178877</v>
+        <v>3179369</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3229606</v>
+        <v>3230076</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9535014379808353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9454278593077547</v>
+        <v>0.9455742100429028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9605149105245127</v>
+        <v>0.9606546891947947</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3204</v>
@@ -4354,19 +4354,19 @@
         <v>3399803</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3377211</v>
+        <v>3373025</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3420748</v>
+        <v>3419799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9655821831063454</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9591656388059804</v>
+        <v>0.957976853935269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.971530729392986</v>
+        <v>0.9712612557815606</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6262</v>
@@ -4375,19 +4375,19 @@
         <v>6605827</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6570665</v>
+        <v>6567373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6638896</v>
+        <v>6638186</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9596810031571518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9545727540636281</v>
+        <v>0.9540945485897087</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9644851965102049</v>
+        <v>0.9643821084366679</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>3320</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10722</v>
+        <v>9662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006655789576209883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00118658500240672</v>
+        <v>0.001193622202667194</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02149742473413744</v>
+        <v>0.01937285045399528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4740,19 +4740,19 @@
         <v>5867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2115</v>
+        <v>2002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14625</v>
+        <v>14308</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.009408015094602963</v>
+        <v>0.009408015094602965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003392054700075282</v>
+        <v>0.003210335307287919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02345306727717419</v>
+        <v>0.02294532663518099</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4761,19 +4761,19 @@
         <v>9186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4244</v>
+        <v>3898</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21159</v>
+        <v>17142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008184973879112335</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00378118523275607</v>
+        <v>0.00347308042517377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01885333691623807</v>
+        <v>0.01527352083712721</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>495419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488017</v>
+        <v>489077</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>498147</v>
+        <v>498144</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9933442104237901</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9785025752658626</v>
+        <v>0.9806271495460046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9988134149975932</v>
+        <v>0.9988063777973328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>855</v>
@@ -4811,19 +4811,19 @@
         <v>617713</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>608955</v>
+        <v>609272</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>621465</v>
+        <v>621578</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9905919849053969</v>
+        <v>0.9905919849053968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.976546932722826</v>
+        <v>0.977054673364819</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9966079452999255</v>
+        <v>0.9967896646927121</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1307</v>
@@ -4832,19 +4832,19 @@
         <v>1113134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1101161</v>
+        <v>1105178</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1118076</v>
+        <v>1118422</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9918150261208877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9811466630837616</v>
+        <v>0.9847264791628727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962188147672441</v>
+        <v>0.9965269195748264</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>13350</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5998</v>
+        <v>6561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26656</v>
+        <v>27275</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01390380658372277</v>
+        <v>0.01390380658372276</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006246587753473916</v>
+        <v>0.006832920993584007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02776224893820115</v>
+        <v>0.02840742888377301</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4957,19 +4957,19 @@
         <v>9715</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5428</v>
+        <v>5253</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16218</v>
+        <v>16099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008706610501763577</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00486485814506262</v>
+        <v>0.004707239885544542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01453402151531543</v>
+        <v>0.01442714448269727</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -4978,19 +4978,19 @@
         <v>23065</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14853</v>
+        <v>14557</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35304</v>
+        <v>34315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01111029656008813</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007154731653862187</v>
+        <v>0.007011942519855621</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01700600016065226</v>
+        <v>0.01652956279398766</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>946787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>933481</v>
+        <v>932862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>954139</v>
+        <v>953576</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9860961934162774</v>
+        <v>0.9860961934162772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9722377510617999</v>
+        <v>0.9715925711162263</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9937534122465261</v>
+        <v>0.9931670790064159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1593</v>
@@ -5028,19 +5028,19 @@
         <v>1106134</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1099631</v>
+        <v>1099750</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1110421</v>
+        <v>1110596</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9912933894982364</v>
+        <v>0.9912933894982362</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9854659784846845</v>
+        <v>0.9855728555173028</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9951351418549375</v>
+        <v>0.9952927601144554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2493</v>
@@ -5049,19 +5049,19 @@
         <v>2052921</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2040682</v>
+        <v>2041671</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2061133</v>
+        <v>2061429</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.988889703439912</v>
+        <v>0.9888897034399118</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9829939998393469</v>
+        <v>0.983470437206011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9928452683461378</v>
+        <v>0.9929880574801443</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>52731</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38025</v>
+        <v>38839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71322</v>
+        <v>71457</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05038854880214772</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03633580714399149</v>
+        <v>0.03711382816617408</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06815428016490302</v>
+        <v>0.06828304615506517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -5174,19 +5174,19 @@
         <v>37061</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28649</v>
+        <v>27700</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48387</v>
+        <v>47533</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03537573232103391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02734616431930439</v>
+        <v>0.02643992600420901</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04618658752839289</v>
+        <v>0.04537107672940733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -5195,19 +5195,19 @@
         <v>89792</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72383</v>
+        <v>72514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109875</v>
+        <v>111225</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04287797407427747</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03456498582347258</v>
+        <v>0.03462747395251976</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05246812600883726</v>
+        <v>0.05311278509173581</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>993748</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>975157</v>
+        <v>975022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1008454</v>
+        <v>1007640</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9496114511978522</v>
+        <v>0.9496114511978523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9318457198350967</v>
+        <v>0.9317169538449345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9636641928560084</v>
+        <v>0.962886171833826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1458</v>
@@ -5245,19 +5245,19 @@
         <v>1010581</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>999255</v>
+        <v>1000109</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1018993</v>
+        <v>1019942</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.964624267678966</v>
+        <v>0.9646242676789664</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9538134124716066</v>
+        <v>0.9546289232705926</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9726538356806952</v>
+        <v>0.9735600739957909</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2437</v>
@@ -5266,19 +5266,19 @@
         <v>2004329</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1984246</v>
+        <v>1982896</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2021738</v>
+        <v>2021607</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9571220259257225</v>
+        <v>0.9571220259257226</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9475318739911627</v>
+        <v>0.9468872149082647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9654350141765276</v>
+        <v>0.9653725260474806</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>60252</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45811</v>
+        <v>46515</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80109</v>
+        <v>78430</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06173776150962944</v>
+        <v>0.06173776150962945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04694101436157763</v>
+        <v>0.04766184965265253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0820845505070527</v>
+        <v>0.0803645374581588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -5391,19 +5391,19 @@
         <v>50677</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40949</v>
+        <v>39905</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64887</v>
+        <v>63968</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0557332712322242</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0450340857756678</v>
+        <v>0.04388587370588692</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07136045593601202</v>
+        <v>0.07035011269098074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -5412,19 +5412,19 @@
         <v>110929</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91480</v>
+        <v>92907</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132261</v>
+        <v>132607</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05884165871048019</v>
+        <v>0.05884165871048018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04852523052798093</v>
+        <v>0.04928188167388089</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07015743710499311</v>
+        <v>0.07034090674335243</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>915677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>895820</v>
+        <v>897499</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>930118</v>
+        <v>929414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9382622384903706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9179154494929472</v>
+        <v>0.919635462541841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9530589856384223</v>
+        <v>0.9523381503473474</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1245</v>
@@ -5462,19 +5462,19 @@
         <v>858602</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>844392</v>
+        <v>845311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>868330</v>
+        <v>869374</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9442667287677758</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9286395440639877</v>
+        <v>0.9296498873090192</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9549659142243322</v>
+        <v>0.9561141262941132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2130</v>
@@ -5483,19 +5483,19 @@
         <v>1774279</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1752947</v>
+        <v>1752601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1793728</v>
+        <v>1792301</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.94115834128952</v>
+        <v>0.9411583412895197</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9298425628950074</v>
+        <v>0.9296590932566476</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9514747694720196</v>
+        <v>0.9507181183261191</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>129651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>108637</v>
+        <v>107818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158166</v>
+        <v>158100</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0372423776396482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03120599942807743</v>
+        <v>0.03097084652109395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04543322237842259</v>
+        <v>0.04541425130451152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>156</v>
@@ -5608,19 +5608,19 @@
         <v>103320</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87444</v>
+        <v>88405</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122127</v>
+        <v>121673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02795192300950632</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02365675909937645</v>
+        <v>0.02391670827455117</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03303990950613313</v>
+        <v>0.03291714432074444</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>281</v>
@@ -5629,19 +5629,19 @@
         <v>232971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>203935</v>
+        <v>202711</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>265269</v>
+        <v>265114</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03245796394576751</v>
+        <v>0.0324579639457675</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02841256094487483</v>
+        <v>0.02824205208599518</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0369577220181205</v>
+        <v>0.03693610182545613</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3351633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3323118</v>
+        <v>3323184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3372647</v>
+        <v>3373466</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9627576223603519</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9545667776215775</v>
+        <v>0.9545857486954883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9687940005719226</v>
+        <v>0.9690291534789062</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5151</v>
@@ -5679,19 +5679,19 @@
         <v>3593030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3574223</v>
+        <v>3574677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3608906</v>
+        <v>3607945</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9720480769904936</v>
+        <v>0.9720480769904937</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9669600904938669</v>
+        <v>0.9670828556792546</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9763432409006231</v>
+        <v>0.9760832917254486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8367</v>
@@ -5700,19 +5700,19 @@
         <v>6944664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6912366</v>
+        <v>6912521</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6973700</v>
+        <v>6974924</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9675420360542325</v>
+        <v>0.9675420360542324</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9630422779818795</v>
+        <v>0.9630638981745437</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9715874390551252</v>
+        <v>0.9717579479140048</v>
       </c>
     </row>
     <row r="18">
